--- a/02.设计/测试用例.xlsx
+++ b/02.设计/测试用例.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
   <si>
     <t>编号</t>
   </si>
@@ -824,6 +824,12 @@
   </si>
   <si>
     <t>标题栏显示计算器</t>
+  </si>
+  <si>
+    <t>高宽</t>
+  </si>
+  <si>
+    <t>294、404</t>
   </si>
   <si>
     <t>菜单栏显示查看、编辑、帮助菜单按钮</t>
@@ -892,8 +898,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -905,8 +911,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -919,27 +926,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -965,31 +955,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,7 +964,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,8 +1001,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,8 +1017,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1058,7 +1064,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,13 +1166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,25 +1178,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,25 +1196,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1152,96 +1248,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1252,17 +1258,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,9 +1293,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1300,21 +1326,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1330,22 +1341,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1355,10 +1361,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1367,133 +1373,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7675,10 +7681,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A3" sqref="A3:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -7759,10 +7765,10 @@
         <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -7773,7 +7779,7 @@
         <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D5" t="s">
         <v>266</v>
@@ -7790,13 +7796,13 @@
         <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="D6" t="s">
         <v>266</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -7809,8 +7815,8 @@
       <c r="C7" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>273</v>
+      <c r="D7" t="s">
+        <v>266</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>274</v>
@@ -7841,13 +7847,13 @@
         <v>264</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
@@ -7858,7 +7864,7 @@
         <v>264</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>280</v>
@@ -7875,7 +7881,7 @@
         <v>264</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>282</v>
@@ -7892,10 +7898,10 @@
         <v>264</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>285</v>
@@ -7909,30 +7915,47 @@
         <v>264</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" t="s">
         <v>266</v>
       </c>
-      <c r="E14" t="s">
-        <v>288</v>
+      <c r="E15" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/02.设计/测试用例.xlsx
+++ b/02.设计/测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21863" windowHeight="10115" activeTab="3"/>
+    <workbookView windowWidth="21431" windowHeight="8280" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="包含二目" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271">
   <si>
     <t>编号</t>
   </si>
@@ -562,72 +562,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>输入一次平方</t>
-  </si>
-  <si>
-    <t>平方键需求</t>
-  </si>
-  <si>
-    <t>sqr(0)</t>
-  </si>
-  <si>
-    <t>输入左数再输入平方</t>
-  </si>
-  <si>
-    <t>sqr(2)</t>
-  </si>
-  <si>
-    <t>输入左数及操作符再输入平方</t>
-  </si>
-  <si>
-    <t>2+sqr(2)</t>
-  </si>
-  <si>
-    <t>输入右数再输入平方</t>
-  </si>
-  <si>
-    <t>2-sqr(3)</t>
-  </si>
-  <si>
-    <t>输入的左数为负数再输入平方</t>
-  </si>
-  <si>
-    <t>sqr(-2)</t>
-  </si>
-  <si>
-    <t>对左数连续输入平方</t>
-  </si>
-  <si>
-    <t>sqrt(2)/*sqrt(sqrt(sqrt(…2)))</t>
-  </si>
-  <si>
-    <t>连续输入运算符显示框的值 4、16、256、65536….</t>
-  </si>
-  <si>
-    <t>对右数连续输入平方</t>
-  </si>
-  <si>
-    <t>2+sqrt(2)/*2+sqrt(sqrt(sqrt(sqrt(..2)</t>
-  </si>
-  <si>
-    <t>连续输入运算符显示框的值4、16、256、65536….</t>
-  </si>
-  <si>
-    <t>1.41421356237….</t>
-  </si>
-  <si>
-    <t>3.414213562373….</t>
-  </si>
-  <si>
-    <t>0.2679491924….</t>
-  </si>
-  <si>
-    <t>1.4142135623….</t>
-  </si>
-  <si>
-    <t>3.4142135623730….</t>
-  </si>
-  <si>
     <t>输入根号√</t>
   </si>
   <si>
@@ -890,6 +824,12 @@
   </si>
   <si>
     <t>显示框分为两层结果框和表达式框</t>
+  </si>
+  <si>
+    <t>打开计算器出现的位置</t>
+  </si>
+  <si>
+    <t>屏幕显示中间靠右</t>
   </si>
 </sst>
 </file>
@@ -897,10 +837,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -911,9 +851,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -927,6 +881,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -934,29 +896,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -970,16 +911,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1002,8 +944,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1017,24 +973,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,14 +989,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1064,19 +1004,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1088,19 +1028,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,31 +1058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1154,13 +1082,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,7 +1124,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,67 +1154,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,15 +1224,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1302,11 +1233,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1326,6 +1263,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1340,31 +1295,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1373,19 +1313,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1394,112 +1334,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4746,7 +4686,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5369,10 +5309,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5445,8 +5385,8 @@
       <c r="C2" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>0</v>
@@ -5457,8 +5397,8 @@
       <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="4">
-        <v>0</v>
+      <c r="H2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>20</v>
@@ -5513,8 +5453,8 @@
       <c r="L3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="4">
-        <v>4</v>
+      <c r="M3" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5522,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>182</v>
@@ -5534,7 +5474,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>20</v>
@@ -5543,19 +5483,19 @@
         <v>2</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="4">
-        <v>4</v>
+      <c r="M4" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5563,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>182</v>
@@ -5575,7 +5515,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
@@ -5584,19 +5524,19 @@
         <v>3</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="4">
-        <v>9</v>
+      <c r="M5" s="4" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5604,16 +5544,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D6" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>20</v>
@@ -5622,7 +5562,7 @@
         <v>20</v>
       </c>
       <c r="H6" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>20</v>
@@ -5631,57 +5571,54 @@
         <v>17</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E7" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
       </c>
       <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
+      <c r="I7" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="4">
-        <v>4</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>194</v>
+      <c r="M7" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5689,84 +5626,87 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M8" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>6</v>
       </c>
       <c r="H9" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5774,16 +5714,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="4">
-        <v>2</v>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -5791,8 +5731,8 @@
       <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="4">
-        <v>2</v>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
@@ -5801,13 +5741,13 @@
         <v>17</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="4" t="s">
-        <v>198</v>
+      <c r="M10" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5815,7 +5755,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>182</v>
@@ -5827,7 +5767,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>20</v>
@@ -5836,19 +5776,19 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5856,7 +5796,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>182</v>
@@ -5870,11 +5810,11 @@
       <c r="F12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="4">
-        <v>3</v>
+      <c r="G12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>92</v>
@@ -5883,13 +5823,13 @@
         <v>17</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5903,22 +5843,22 @@
         <v>182</v>
       </c>
       <c r="D13" s="4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3</v>
       </c>
       <c r="H13" s="4">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>17</v>
@@ -5929,8 +5869,8 @@
       <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="4">
-        <v>0</v>
+      <c r="M13" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5938,16 +5878,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
@@ -5956,7 +5896,7 @@
         <v>20</v>
       </c>
       <c r="H14" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>20</v>
@@ -5965,13 +5905,13 @@
         <v>17</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>201</v>
+      <c r="M14" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5979,16 +5919,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="4">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
@@ -5999,20 +5939,20 @@
       <c r="H15" s="4">
         <v>2</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>23</v>
+      <c r="I15" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6020,16 +5960,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>182</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>20</v>
@@ -6037,8 +5977,8 @@
       <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>20</v>
+      <c r="H16" s="4">
+        <v>4</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>20</v>
@@ -6047,13 +5987,13 @@
         <v>17</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6061,10 +6001,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -6073,28 +6013,28 @@
         <v>2</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="G17" s="4">
+        <v>6</v>
       </c>
       <c r="H17" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6102,28 +6042,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="4">
-        <v>2</v>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>17</v>
@@ -6135,7 +6075,7 @@
         <v>12</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>211</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6143,40 +6083,40 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4">
-        <v>3</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>214</v>
+      <c r="M19" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -6184,40 +6124,40 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D20" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="H20" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>114</v>
+      <c r="M20" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -6225,40 +6165,40 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D21" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G21" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="I21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>218</v>
+      <c r="M21" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -6266,16 +6206,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -6284,7 +6224,7 @@
         <v>20</v>
       </c>
       <c r="H22" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>20</v>
@@ -6293,16 +6233,16 @@
         <v>17</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>221</v>
+      <c r="M22" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -6310,43 +6250,43 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="4">
+        <v>2</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4">
-        <v>6</v>
-      </c>
-      <c r="H23" s="4">
-        <v>6</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -6354,13 +6294,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>209</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -6381,7 +6321,7 @@
         <v>17</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>17</v>
@@ -6395,10 +6335,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
@@ -6422,13 +6362,13 @@
         <v>17</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>218</v>
+      <c r="M25" s="4">
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -6436,11 +6376,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D26" s="4">
         <v>2</v>
       </c>
@@ -6448,7 +6388,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>20</v>
@@ -6457,19 +6397,19 @@
         <v>2</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>226</v>
+      <c r="M26" s="4">
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -6477,10 +6417,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
@@ -6489,28 +6429,28 @@
         <v>2</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="G27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H27" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>227</v>
+      <c r="M27" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -6518,16 +6458,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D28" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>20</v>
@@ -6536,7 +6476,7 @@
         <v>20</v>
       </c>
       <c r="H28" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>20</v>
@@ -6545,13 +6485,13 @@
         <v>17</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="L28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="4">
-        <v>0</v>
+      <c r="M28" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -6559,19 +6499,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>204</v>
-      </c>
       <c r="D29" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="G29" s="4">
         <v>2</v>
@@ -6579,20 +6519,20 @@
       <c r="H29" s="4">
         <v>2</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>216</v>
+      <c r="I29" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="L29" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -6600,16 +6540,16 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D30" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>20</v>
@@ -6618,22 +6558,22 @@
         <v>20</v>
       </c>
       <c r="H30" s="4">
-        <v>4</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>220</v>
+      <c r="K30" s="4">
+        <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M30" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -6641,40 +6581,40 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D31" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H31" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>223</v>
+      <c r="K31" s="4">
+        <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>229</v>
+        <v>12</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -6682,40 +6622,40 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
+      <c r="H32" s="4">
+        <v>5</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>87</v>
+      <c r="M32" s="4">
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -6723,51 +6663,51 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33" s="4">
+        <v>5</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="4">
+        <v>6</v>
+      </c>
+      <c r="H33" s="4">
+        <v>6</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="4">
-        <v>2</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M33" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D34" s="4">
         <v>2</v>
@@ -6776,7 +6716,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>20</v>
@@ -6785,30 +6725,31 @@
         <v>2</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>236</v>
+      <c r="K34" s="4">
+        <v>0</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M34" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D35" s="4">
         <v>2</v>
@@ -6832,30 +6773,33 @@
         <v>17</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="M35" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>0.08</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D36" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>20</v>
@@ -6864,69 +6808,63 @@
         <v>20</v>
       </c>
       <c r="H36" s="4">
-        <v>2</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>0</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K36" s="4" t="s">
-        <v>240</v>
+      <c r="K36" s="4">
+        <v>0</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>17</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D37" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" s="4">
-        <v>2</v>
+        <v>20</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="H37" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>244</v>
+      <c r="K37" s="4">
+        <v>0</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>242</v>
+        <v>17</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -6934,40 +6872,40 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D38" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E38" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>20</v>
+      <c r="H38" s="4">
+        <v>5</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M38" s="4">
-        <v>0</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -6975,40 +6913,40 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="4">
+        <v>5</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="4">
+        <v>6</v>
+      </c>
+      <c r="H39" s="4">
+        <v>6</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="4">
-        <v>2</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="L39" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M39" s="4">
-        <v>0.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -7016,10 +6954,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
@@ -7028,7 +6966,7 @@
         <v>2</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>20</v>
@@ -7037,19 +6975,19 @@
         <v>2</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>236</v>
+      <c r="K40" s="4">
+        <v>0</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M40" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -7057,10 +6995,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D41" s="4">
         <v>2</v>
@@ -7084,590 +7022,12 @@
         <v>17</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="4">
-        <v>2</v>
-      </c>
-      <c r="H43" s="4">
-        <v>2</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D44" s="4">
-        <v>0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>0</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D45" s="4">
-        <v>5</v>
-      </c>
-      <c r="E45" s="4">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="4">
-        <v>5</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K45" s="4">
-        <v>0</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="4">
-        <v>5</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" s="4">
-        <v>5</v>
-      </c>
-      <c r="E47" s="4">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="4">
-        <v>6</v>
-      </c>
-      <c r="H47" s="4">
-        <v>6</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="4">
-        <v>2</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K48" s="4">
-        <v>0</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="4">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2</v>
-      </c>
-      <c r="E49" s="4">
-        <v>2</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49" s="4">
-        <v>4</v>
-      </c>
-      <c r="H49" s="4">
-        <v>4</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="4">
-        <v>0.08</v>
-      </c>
-      <c r="N49" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" s="4">
-        <v>0</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="4">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4">
-        <v>0</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K50" s="4">
-        <v>0</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="4">
-        <v>5</v>
-      </c>
-      <c r="E51" s="4">
-        <v>5</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="4">
-        <v>5</v>
-      </c>
-      <c r="I51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51" s="4">
-        <v>0</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D52" s="4">
-        <v>5</v>
-      </c>
-      <c r="E52" s="4">
-        <v>5</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="4">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="L52" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M52" s="4">
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D53" s="4">
-        <v>5</v>
-      </c>
-      <c r="E53" s="4">
-        <v>5</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" s="4">
-        <v>6</v>
-      </c>
-      <c r="H53" s="4">
-        <v>6</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L53" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M53" s="4">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="4">
-        <v>2</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="4">
-        <v>0</v>
-      </c>
-      <c r="L54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D55" s="4">
-        <v>2</v>
-      </c>
-      <c r="E55" s="4">
-        <v>2</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="4">
-        <v>4</v>
-      </c>
-      <c r="H55" s="4">
-        <v>4</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="4">
         <v>0.16</v>
       </c>
     </row>
@@ -7681,17 +7041,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="14.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="17.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="15.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="24.7777777777778" customWidth="1"/>
     <col min="5" max="5" width="44.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="37.2222222222222" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
@@ -7699,25 +7059,25 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:5">
@@ -7725,16 +7085,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:5">
@@ -7742,16 +7102,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:5">
@@ -7759,16 +7119,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
@@ -7776,16 +7136,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D5" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
@@ -7793,16 +7153,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
@@ -7810,16 +7170,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
@@ -7827,16 +7187,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
@@ -7844,16 +7204,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
@@ -7861,16 +7221,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
@@ -7878,16 +7238,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
@@ -7895,16 +7255,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
@@ -7912,16 +7272,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
@@ -7929,16 +7289,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7946,16 +7306,33 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="C15" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="E15" t="s">
-        <v>290</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
